--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Stats\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3578BABE-94D8-4A78-A488-DD6A01915000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91229D-F834-42B5-B778-BE40D9540A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="600" windowWidth="25830" windowHeight="18930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21240" yWindow="1230" windowWidth="25875" windowHeight="18930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
@@ -188,9 +188,6 @@
     <t>あおいぬ</t>
   </si>
   <si>
-    <t>ゆっち一</t>
-  </si>
-  <si>
     <t>--めい--</t>
   </si>
   <si>
@@ -342,13 +339,29 @@
   <si>
     <t>Florian T-Shirts</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゆっち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +381,14 @@
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -695,24 +716,24 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -738,79 +759,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +845,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -840,22 +861,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -863,30 +884,30 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -895,7 +916,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -909,16 +930,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -932,7 +953,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -941,7 +962,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -955,16 +976,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -978,16 +999,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -1001,16 +1022,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -1024,16 +1045,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -1047,16 +1068,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -1070,16 +1091,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1093,16 +1114,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -1116,19 +1137,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1136,38 +1157,38 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91229D-F834-42B5-B778-BE40D9540A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E0092-A914-4AEC-A0C7-228BDD48ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21240" yWindow="1230" windowWidth="25875" windowHeight="18930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="390" windowWidth="25875" windowHeight="18930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
@@ -348,13 +348,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ー</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -385,10 +385,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -746,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9633E992-A7F1-469F-A2C9-7C4786F05657}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -844,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22610C05-602F-49B9-A55D-7545CE38103D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -905,7 +904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wiseokhyeon/Documents/GitHub/WBtiz/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E0092-A914-4AEC-A0C7-228BDD48ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EBF46-EE06-7146-82C7-02AB668CB5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="390" windowWidth="25875" windowHeight="18930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17120" yWindow="1500" windowWidth="12720" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
     <sheet name="팀분류" sheetId="3" r:id="rId2"/>
     <sheet name="2025 썸머시즌" sheetId="2" r:id="rId3"/>
+    <sheet name="2025 봄 프리시즌 수훈" sheetId="5" r:id="rId4"/>
+    <sheet name="1회 WBD 드래프트 챔피언십 수훈" sheetId="6" r:id="rId5"/>
+    <sheet name="2025 썸머시즌 기록" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="212">
   <si>
     <t>League Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,9 +233,6 @@
     <t>Fresh825</t>
   </si>
   <si>
-    <t>P0TA0</t>
-  </si>
-  <si>
     <t>peperon8655</t>
   </si>
   <si>
@@ -310,22 +319,6 @@
     <t>Pugeuk</t>
   </si>
   <si>
-    <t>紅さかな</t>
-  </si>
-  <si>
-    <t>keiraiden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IbikiKai_JP</t>
-  </si>
-  <si>
-    <t>Kenomo</t>
-  </si>
-  <si>
-    <t>jdw4469</t>
-  </si>
-  <si>
     <t>리그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,18 +335,470 @@
   </si>
   <si>
     <r>
-      <t>ゆっち</t>
+      <t>jdw4469 (버</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jdw4469 (플</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0TA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenomo (냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenomo (이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keiraiden (이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keiraiden (냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IbikiKai_JP (냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅さかな (이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IbikiKai_JP (이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jdw4469 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ゆっち一</t>
+  </si>
+  <si>
+    <t>2025 봄 프리시즌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록 리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 여름 공식전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25엶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 WBD 드래프트 챔피언십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토너먼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록 명</t>
+  </si>
+  <si>
+    <t>일자</t>
+  </si>
+  <si>
+    <t>닉네임</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>1호 선발투수</t>
+  </si>
+  <si>
+    <t>Chunsik03, 인생최패망자</t>
+  </si>
+  <si>
+    <t>LEROLEROS vs BUBBLE STARS</t>
+  </si>
+  <si>
+    <t>1호 QS</t>
+  </si>
+  <si>
+    <t>Chunsik03 (BUBBLE STARS)</t>
+  </si>
+  <si>
+    <t>6이닝 2자책점</t>
+  </si>
+  <si>
+    <t>1호 승리투수</t>
+  </si>
+  <si>
+    <t>선발등판 및 6이닝 2실점</t>
+  </si>
+  <si>
+    <t>1호 홀드</t>
+  </si>
+  <si>
+    <t>1호 세이브</t>
+  </si>
+  <si>
+    <t>_Chun (BUBBLE STARS)</t>
+  </si>
+  <si>
+    <t>7회 등판 및 3이닝 무실점</t>
+  </si>
+  <si>
+    <t>1호 퍼펙트 게임</t>
+  </si>
+  <si>
+    <t>1호 완봉승</t>
+  </si>
+  <si>
+    <t>Floră (FLORIAN T-SHIRTS)</t>
+  </si>
+  <si>
+    <t>47구 5회 완봉 10 : 0</t>
+  </si>
+  <si>
+    <t>1호 탈삼진</t>
+  </si>
+  <si>
+    <t>2회초 7번타자 상대</t>
+  </si>
+  <si>
+    <t>1호 폭투</t>
+  </si>
+  <si>
+    <t>인생최패망자 (LEROLEROS)</t>
+  </si>
+  <si>
+    <t>3회말 3번타자 상대</t>
+  </si>
+  <si>
+    <t>1호 피안타</t>
+  </si>
+  <si>
+    <t>1회초 1번타자 상대 5구째</t>
+  </si>
+  <si>
+    <t>1호 피홈런</t>
+  </si>
+  <si>
+    <t>1호 피볼넷</t>
+  </si>
+  <si>
+    <t>甲斐野柊太 (Ishikawa Fighting Folks)</t>
+  </si>
+  <si>
+    <t>1회초 3번타자 5구째</t>
+  </si>
+  <si>
+    <t>1호 용병투수</t>
+  </si>
+  <si>
+    <t>Kenomo (Ishikawa Fighting Folks)</t>
+  </si>
+  <si>
+    <t>1호 사이클링 히트</t>
+  </si>
+  <si>
+    <t>장덕춘_ (BUBBLE STARS)</t>
+  </si>
+  <si>
+    <t>2 &gt; 3 &gt; 1 &gt; 홈런 / 최소타수 4타수</t>
+  </si>
+  <si>
+    <t>1호 안타 및 출루</t>
+  </si>
+  <si>
+    <t>Kr_Luna (LEROLEROS)</t>
+  </si>
+  <si>
+    <t>1회초 1번타자 5구째</t>
+  </si>
+  <si>
+    <t>1호 2루타</t>
+  </si>
+  <si>
+    <t>Gonyong (BUBBLE STARS)</t>
+  </si>
+  <si>
+    <t>3회말 2번타자 3구째</t>
+  </si>
+  <si>
+    <t>1호 3루타</t>
+  </si>
+  <si>
+    <t>Sabo_10 (MoonShot Spirits)</t>
+  </si>
+  <si>
+    <t>5회초 5번타자 초구</t>
+  </si>
+  <si>
+    <t>1호 도루</t>
+  </si>
+  <si>
+    <t>D_arling (BUBBLE STARS)</t>
+  </si>
+  <si>
+    <t>4회말 8번타자 타석 초구</t>
+  </si>
+  <si>
+    <t>1호 더블 스틸</t>
+  </si>
+  <si>
+    <t>FLORIAN T-SHIRTS</t>
+  </si>
+  <si>
+    <t>3회말 5번타자 초구</t>
+  </si>
+  <si>
+    <t>1호 볼넷</t>
+  </si>
+  <si>
+    <t>Espressο (MoonShot Spirits)</t>
+  </si>
+  <si>
+    <t>1호 고의사구</t>
+  </si>
+  <si>
+    <t>3회말 4번타자</t>
+  </si>
+  <si>
+    <t>1호 몸에 맞는 볼</t>
+  </si>
+  <si>
+    <t>눈꽃 (MoonShot Spirits)</t>
+  </si>
+  <si>
+    <t>6회초 4번타자 초구</t>
+  </si>
+  <si>
+    <t>1호 헤드샷(?)</t>
+  </si>
+  <si>
+    <t>오띵__ (FLORIAN T-SHIRTS)</t>
+  </si>
+  <si>
+    <t>5회말 1번타자 초구</t>
+  </si>
+  <si>
+    <t>1호 타점</t>
+  </si>
+  <si>
+    <t>1호 홈런</t>
+  </si>
+  <si>
+    <t>1호 만루홈런</t>
+  </si>
+  <si>
+    <t>1호 끝내기 및 끝내기 안타</t>
+  </si>
+  <si>
+    <t>9회말 4번타자 2구째</t>
+  </si>
+  <si>
+    <t>1호 끝내기 홈런</t>
+  </si>
+  <si>
+    <t>1호 홈보살</t>
+  </si>
+  <si>
+    <t>1호 아웃</t>
+  </si>
+  <si>
+    <t>-라후이- (LEROLEROS)</t>
+  </si>
+  <si>
+    <t>1회초 2번타자 3구째 우익수 플라이</t>
+  </si>
+  <si>
+    <t>1호 삼진</t>
+  </si>
+  <si>
+    <t>HalF_HearteD (LEROLEROS)</t>
+  </si>
+  <si>
+    <t>2회초 7번타자 5구째</t>
+  </si>
+  <si>
+    <t>1호 병살타</t>
+  </si>
+  <si>
+    <t>SFIDA (Ishikawa Fighting Folks)</t>
+  </si>
+  <si>
+    <t>7회말 7번타자 초구</t>
+  </si>
+  <si>
+    <t>1호 실책</t>
+  </si>
+  <si>
+    <t>1호 용병타자</t>
+  </si>
+  <si>
+    <t>썸머시즌 최장거리 홈런</t>
+  </si>
+  <si>
+    <t>Sabo_10 (MoonSHot Spirits)</t>
+  </si>
+  <si>
+    <t>4회초 4번타자 6구 143M</t>
+  </si>
+  <si>
+    <t>1호 연장전</t>
+  </si>
+  <si>
+    <t>BUBBLE STARS vs Ishikawa Fighting Folks</t>
+  </si>
+  <si>
+    <t>4대4 무승부</t>
+  </si>
+  <si>
+    <t>1호 우천취소</t>
+  </si>
+  <si>
+    <t>1호 몰수패</t>
+  </si>
+  <si>
+    <t>1호 무박 2일 경기</t>
+  </si>
+  <si>
+    <r>
+      <t>FLORIAN T-SHIRTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="128"/>
       </rPr>
-      <t>ー</t>
+      <t> vs MoonShot Spirits</t>
     </r>
+  </si>
+  <si>
+    <t>07/21 00:30 종료 </t>
+  </si>
+  <si>
+    <t>1호 무실점 콜드게임 승리(???)</t>
+  </si>
+  <si>
+    <t>5회 10 : 0 콜드 승</t>
+  </si>
+  <si>
+    <t>isdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>구분</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>투</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 18일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 20일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +806,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,22 +831,120 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -406,16 +952,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -696,18 +1276,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,24 +1295,72 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -745,92 +1373,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9633E992-A7F1-469F-A2C9-7C4786F05657}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -844,69 +1472,69 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" thickBot="1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -914,8 +1542,8 @@
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>95</v>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -927,15 +1555,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>51</v>
@@ -950,9 +1578,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -973,9 +1601,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -996,9 +1624,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -1019,15 +1647,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>55</v>
@@ -1042,15 +1670,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>56</v>
@@ -1065,15 +1693,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>57</v>
@@ -1088,15 +1716,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>58</v>
@@ -1111,15 +1739,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>59</v>
@@ -1134,60 +1762,837 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A56CEED-0B98-6646-B46E-CCFDBE6F2BA2}">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DDB032-8A65-BE4A-8880-F15AEB415024}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8218E7-8B15-A048-B0B0-547C81C2FD16}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wiseokhyeon/Documents/GitHub/WBtiz/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EBF46-EE06-7146-82C7-02AB668CB5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4945F6-84AA-4907-8A9A-0B9EA1B5BECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17120" yWindow="1500" windowWidth="12720" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23940" yWindow="1305" windowWidth="23355" windowHeight="18660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -993,9 +993,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1282,7 +1282,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
@@ -1377,11 +1377,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1471,19 +1471,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22610C05-602F-49B9-A55D-7545CE38103D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1">
+    <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1">
+    <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1843,13 +1843,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A56CEED-0B98-6646-B46E-CCFDBE6F2BA2}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1918,7 +1918,7 @@
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,13 +1933,13 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wiseokhyeon/Documents/GitHub/WBtiz/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EBF46-EE06-7146-82C7-02AB668CB5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C6FCC0-E2BA-BB4E-A609-FC50E8A55823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="1500" windowWidth="12720" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1844,7 +1844,7 @@
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -8,38 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4945F6-84AA-4907-8A9A-0B9EA1B5BECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF6A201-0F91-463B-AF4C-36E608D63979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23940" yWindow="1305" windowWidth="23355" windowHeight="18660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10725" yWindow="1500" windowWidth="30540" windowHeight="18435" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
     <sheet name="팀분류" sheetId="3" r:id="rId2"/>
     <sheet name="2025 썸머시즌" sheetId="2" r:id="rId3"/>
     <sheet name="2025 봄 프리시즌 수훈" sheetId="5" r:id="rId4"/>
-    <sheet name="1회 WBD 드래프트 챔피언십 수훈" sheetId="6" r:id="rId5"/>
-    <sheet name="2025 썸머시즌 기록" sheetId="4" r:id="rId6"/>
+    <sheet name="2025 봄 프리시즌 기록" sheetId="7" r:id="rId5"/>
+    <sheet name="1회 WBD 드래프트 챔피언십 수훈" sheetId="6" r:id="rId6"/>
+    <sheet name="2025 썸머시즌 기록" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="268">
   <si>
     <t>League Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,6 +791,183 @@
   </si>
   <si>
     <t>7월 20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdg06213(문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AKASATA_(문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaeGeuk_, Espressο</t>
+  </si>
+  <si>
+    <t>양팀 첫 선발</t>
+  </si>
+  <si>
+    <t>7이닝 2자책점 투구</t>
+  </si>
+  <si>
+    <t>선발로 5이닝 무실점 투구</t>
+  </si>
+  <si>
+    <t>_강 도_</t>
+  </si>
+  <si>
+    <t>6이닝 등판 1실점 투구</t>
+  </si>
+  <si>
+    <t>8이닝 등판 무실점 투구</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1회초 5번타자 상대 4구</t>
+  </si>
+  <si>
+    <t>3회초 1번타자 2구</t>
+  </si>
+  <si>
+    <t>1회초 1번타자 3구</t>
+  </si>
+  <si>
+    <t>1회초 4번타자 상대 3구</t>
+  </si>
+  <si>
+    <t>yun_x</t>
+  </si>
+  <si>
+    <t>4회초 3번타자 6구</t>
+  </si>
+  <si>
+    <t>9회초 1번타자 2구</t>
+  </si>
+  <si>
+    <t>4회초 3번타자 4구</t>
+  </si>
+  <si>
+    <t>1회초 4번타자 1구</t>
+  </si>
+  <si>
+    <t>9회말 4번타자 타석</t>
+  </si>
+  <si>
+    <t>1회초 2번타자 2구</t>
+  </si>
+  <si>
+    <t>1회초 4번타자 3구</t>
+  </si>
+  <si>
+    <t>6회초 1번타자 3구</t>
+  </si>
+  <si>
+    <t>11회말 2번타자 3구</t>
+  </si>
+  <si>
+    <t>1회초 2~3루 주루 중 포스아웃</t>
+  </si>
+  <si>
+    <t>1회초 5번타자 4구</t>
+  </si>
+  <si>
+    <t>포 메 라 니 안</t>
+  </si>
+  <si>
+    <t>9회말 5번타자 4구</t>
+  </si>
+  <si>
+    <t>1회초 6번타자 대상 우익수 실책</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호 부상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Espressο</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호 안타 및 출루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>신인왕</t>
+  </si>
+  <si>
+    <t>명장</t>
+  </si>
+  <si>
+    <t>최우수 타자</t>
+  </si>
+  <si>
+    <t>타격왕</t>
+  </si>
+  <si>
+    <t>ときめき</t>
+  </si>
+  <si>
+    <t>홈런왕</t>
+  </si>
+  <si>
+    <t>안타왕</t>
+  </si>
+  <si>
+    <t>타점왕</t>
+  </si>
+  <si>
+    <t>득점왕</t>
+  </si>
+  <si>
+    <t>출루왕</t>
+  </si>
+  <si>
+    <t>장타왕</t>
+  </si>
+  <si>
+    <t>도루왕</t>
+  </si>
+  <si>
+    <t>최우수 투수</t>
+  </si>
+  <si>
+    <t>평균자책점왕</t>
+  </si>
+  <si>
+    <t>다승왕</t>
+  </si>
+  <si>
+    <t>Espressο, Apple_Sherbet, HANA_ARASHI</t>
+  </si>
+  <si>
+    <t>탈삼진왕</t>
+  </si>
+  <si>
+    <t>세이브왕</t>
+  </si>
+  <si>
+    <t>WHIP왕</t>
+  </si>
+  <si>
+    <t>부문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,12 +1028,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -874,13 +1037,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -929,8 +1085,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,8 +1111,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -967,11 +1153,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,20 +1330,63 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1471,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22610C05-602F-49B9-A55D-7545CE38103D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1807,6 +2198,9 @@
       <c r="A15" t="s">
         <v>76</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
@@ -1817,6 +2211,9 @@
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C16" t="s">
         <v>94</v>
@@ -1841,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A56CEED-0B98-6646-B46E-CCFDBE6F2BA2}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1852,59 +2249,157 @@
     <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="11.25" customHeight="1">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>267</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1913,6 +2408,522 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED48BBF0-0E70-442E-A49F-71D073E4D272}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18">
+        <v>45779</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="22">
+        <v>45793</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="22">
+        <v>45801</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="22">
+        <v>45793</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A14" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="18">
+        <v>45779</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="22">
+        <v>45787</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="22">
+        <v>45793</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="22">
+        <v>45808</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="22">
+        <v>45794</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="22">
+        <v>45807</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="22">
+        <v>45779</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="27">
+        <v>45779</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DDB032-8A65-BE4A-8880-F15AEB415024}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1925,258 +2936,258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8218E7-8B15-A048-B0B0-547C81C2FD16}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A19" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E15" t="s">
@@ -2184,16 +3195,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E16" t="s">
@@ -2201,16 +3212,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E17" t="s">
@@ -2218,16 +3229,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>154</v>
       </c>
       <c r="E18" t="s">
@@ -2235,16 +3246,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E19" t="s">
@@ -2252,16 +3263,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E20" t="s">
@@ -2269,16 +3280,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E21" t="s">
@@ -2286,16 +3297,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E22" t="s">
@@ -2303,16 +3314,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E23" t="s">
@@ -2320,16 +3331,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E24" t="s">
@@ -2337,16 +3348,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E25" t="s">
@@ -2354,16 +3365,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E26" t="s">
@@ -2371,27 +3382,27 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E28" t="s">
@@ -2399,16 +3410,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E29" t="s">
@@ -2416,27 +3427,27 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E31" t="s">
@@ -2444,16 +3455,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E32" t="s">
@@ -2461,16 +3472,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E33" t="s">
@@ -2478,44 +3489,44 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="5"/>
       <c r="E35" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E36" t="s">
@@ -2523,16 +3534,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E37" t="s">
@@ -2540,38 +3551,38 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E40" t="s">
@@ -2579,16 +3590,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E41" t="s">

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wiseokhyeon/Documents/GitHub/WBtiz/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF6A201-0F91-463B-AF4C-36E608D63979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B1ACC-7428-3A48-AA02-2036915E1ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="1500" windowWidth="30540" windowHeight="18435" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="269">
   <si>
     <t>League Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,6 +968,10 @@
   </si>
   <si>
     <t>선수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdg06213(레)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1378,12 +1382,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1669,11 +1673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
@@ -1768,11 +1772,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1863,18 +1867,18 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1900,7 +1904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickBot="1">
+    <row r="2" spans="1:8" ht="18" thickBot="1">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1">
+    <row r="3" spans="1:8" ht="18" thickBot="1">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2191,6 +2195,9 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -2240,13 +2247,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A56CEED-0B98-6646-B46E-CCFDBE6F2BA2}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="11.25" customHeight="1">
@@ -2415,15 +2422,15 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+    <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>110</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+    <row r="14" spans="1:5" ht="18" thickBot="1">
       <c r="A14" s="31" t="s">
         <v>243</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1">
+    <row r="30" spans="1:5" ht="18" thickBot="1">
       <c r="A30" s="26" t="s">
         <v>187</v>
       </c>
@@ -2929,7 +2936,7 @@
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2944,13 +2951,13 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wiseokhyeon/Documents/GitHub/WBtiz/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B1ACC-7428-3A48-AA02-2036915E1ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76003E11-BA30-2D4E-906A-CC0EC4F3B89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -431,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25봄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25엶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,6 +977,10 @@
   </si>
   <si>
     <t>bdg06213(레)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1696,7 +1705,7 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1707,7 +1716,7 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -1715,13 +1724,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
       </c>
       <c r="D3" t="s">
         <v>103</v>
@@ -1752,7 +1761,7 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>82</v>
@@ -1768,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9633E992-A7F1-469F-A2C9-7C4786F05657}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2197,7 +2206,7 @@
         <v>89</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -2206,7 +2215,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
@@ -2220,7 +2229,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
         <v>94</v>
@@ -2258,15 +2267,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="11.25" customHeight="1">
       <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
         <v>266</v>
-      </c>
-      <c r="B1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>33</v>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>26</v>
@@ -2282,7 +2291,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>34</v>
@@ -2290,7 +2299,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>14</v>
@@ -2298,15 +2307,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>10</v>
@@ -2314,7 +2323,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>22</v>
@@ -2322,7 +2331,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>10</v>
@@ -2330,7 +2339,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>33</v>
@@ -2338,15 +2347,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>33</v>
@@ -2354,7 +2363,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>26</v>
@@ -2362,7 +2371,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>40</v>
@@ -2370,7 +2379,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>22</v>
@@ -2378,15 +2387,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>33</v>
@@ -2394,7 +2403,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>33</v>
@@ -2402,10 +2411,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2432,41 +2441,41 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="18">
         <v>45779</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>215</v>
-      </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22">
         <v>45793</v>
@@ -2475,15 +2484,15 @@
         <v>34</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="22">
         <v>45779</v>
@@ -2492,32 +2501,32 @@
         <v>47</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="22">
         <v>45779</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>219</v>
-      </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="22">
         <v>45779</v>
@@ -2526,41 +2535,41 @@
         <v>40</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="22">
         <v>45779</v>
@@ -2569,15 +2578,15 @@
         <v>33</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="22">
         <v>45801</v>
@@ -2586,15 +2595,15 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="22">
         <v>45779</v>
@@ -2603,15 +2612,15 @@
         <v>33</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="22">
         <v>45779</v>
@@ -2620,45 +2629,45 @@
         <v>33</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="22">
         <v>45793</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>227</v>
-      </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1">
       <c r="A14" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="18">
         <v>45779</v>
@@ -2667,15 +2676,15 @@
         <v>22</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="22">
         <v>45779</v>
@@ -2684,15 +2693,15 @@
         <v>22</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="22">
         <v>45787</v>
@@ -2701,15 +2710,15 @@
         <v>14</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="22">
         <v>45779</v>
@@ -2718,15 +2727,15 @@
         <v>47</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="22">
         <v>45793</v>
@@ -2735,15 +2744,15 @@
         <v>14</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="22">
         <v>45808</v>
@@ -2752,15 +2761,15 @@
         <v>10</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="22">
         <v>45779</v>
@@ -2769,15 +2778,15 @@
         <v>47</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" s="22">
         <v>45779</v>
@@ -2786,15 +2795,15 @@
         <v>10</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="22">
         <v>45779</v>
@@ -2803,15 +2812,15 @@
         <v>10</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="22">
         <v>45794</v>
@@ -2820,15 +2829,15 @@
         <v>7</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="22">
         <v>45807</v>
@@ -2837,28 +2846,28 @@
         <v>10</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="22">
         <v>45779</v>
@@ -2867,15 +2876,15 @@
         <v>22</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="22">
         <v>45779</v>
@@ -2884,32 +2893,32 @@
         <v>38</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="22">
         <v>45779</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>239</v>
-      </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" thickBot="1">
       <c r="A30" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="27">
         <v>45779</v>
@@ -2918,10 +2927,10 @@
         <v>36</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2962,655 +2971,655 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Data/League_Team.xlsx
+++ b/Data/League_Team.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wiseokhyeon/Documents/GitHub/WBtiz/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76003E11-BA30-2D4E-906A-CC0EC4F3B89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663CAB5D-528A-4332-B88D-6CFE5D4177D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9210" yWindow="1545" windowWidth="29175" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리그분류" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="270">
   <si>
     <t>League Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,10 +241,6 @@
   </si>
   <si>
     <t>줄임말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -981,6 +968,14 @@
   </si>
   <si>
     <t>Pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRecorded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1680,18 +1675,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1702,69 +1697,78 @@
         <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
       <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1777,92 +1781,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9633E992-A7F1-469F-A2C9-7C4786F05657}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1876,69 +1880,69 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1">
+    <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>67</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1">
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -1947,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -1961,7 +1965,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1984,7 +1988,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -2007,7 +2011,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -2030,7 +2034,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -2053,13 +2057,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>55</v>
@@ -2076,7 +2080,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -2099,7 +2103,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -2122,7 +2126,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -2145,7 +2149,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
@@ -2168,22 +2172,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -2191,59 +2195,59 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2260,22 +2264,22 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="11.25" customHeight="1">
       <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
         <v>265</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>33</v>
@@ -2283,7 +2287,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>26</v>
@@ -2291,7 +2295,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>34</v>
@@ -2299,7 +2303,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>14</v>
@@ -2307,15 +2311,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>10</v>
@@ -2323,7 +2327,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>22</v>
@@ -2331,7 +2335,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>10</v>
@@ -2339,7 +2343,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>33</v>
@@ -2347,15 +2351,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>33</v>
@@ -2363,7 +2367,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>26</v>
@@ -2371,7 +2375,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>40</v>
@@ -2379,7 +2383,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>22</v>
@@ -2387,15 +2391,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>33</v>
@@ -2403,7 +2407,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>33</v>
@@ -2411,10 +2415,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2431,51 +2435,51 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
       <c r="A1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="18">
         <v>45779</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>214</v>
-      </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="22">
         <v>45793</v>
@@ -2484,15 +2488,15 @@
         <v>34</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="22">
         <v>45779</v>
@@ -2501,32 +2505,32 @@
         <v>47</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="22">
         <v>45779</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>218</v>
-      </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="22">
         <v>45779</v>
@@ -2535,41 +2539,41 @@
         <v>40</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="22">
         <v>45779</v>
@@ -2578,15 +2582,15 @@
         <v>33</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="22">
         <v>45801</v>
@@ -2595,15 +2599,15 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="22">
         <v>45779</v>
@@ -2612,15 +2616,15 @@
         <v>33</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="22">
         <v>45779</v>
@@ -2629,45 +2633,45 @@
         <v>33</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="22">
         <v>45793</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>226</v>
-      </c>
       <c r="E13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A14" s="31" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1">
-      <c r="A14" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="18">
         <v>45779</v>
@@ -2676,15 +2680,15 @@
         <v>22</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="22">
         <v>45779</v>
@@ -2693,15 +2697,15 @@
         <v>22</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="22">
         <v>45787</v>
@@ -2710,15 +2714,15 @@
         <v>14</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="22">
         <v>45779</v>
@@ -2727,15 +2731,15 @@
         <v>47</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="22">
         <v>45793</v>
@@ -2744,15 +2748,15 @@
         <v>14</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="22">
         <v>45808</v>
@@ -2761,15 +2765,15 @@
         <v>10</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="22">
         <v>45779</v>
@@ -2778,15 +2782,15 @@
         <v>47</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="22">
         <v>45779</v>
@@ -2795,15 +2799,15 @@
         <v>10</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="22">
         <v>45779</v>
@@ -2812,15 +2816,15 @@
         <v>10</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="22">
         <v>45794</v>
@@ -2829,15 +2833,15 @@
         <v>7</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="22">
         <v>45807</v>
@@ -2846,28 +2850,28 @@
         <v>10</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="22">
         <v>45779</v>
@@ -2876,15 +2880,15 @@
         <v>22</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="22">
         <v>45779</v>
@@ -2893,32 +2897,32 @@
         <v>38</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="22">
         <v>45779</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>238</v>
-      </c>
       <c r="E29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1">
       <c r="A30" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="27">
         <v>45779</v>
@@ -2927,10 +2931,10 @@
         <v>36</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +2949,7 @@
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2960,666 +2964,666 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
